--- a/log.xlsx
+++ b/log.xlsx
@@ -1,147 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osholderer\OneDrive - Deloitte (O365D)\Documents\Python\IMDb\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_AE58AE74030A6487569812924C97753BC97523BE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE0D5397-A34E-450D-A210-624C065EE2D9}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="log" sheetId="1" r:id="rId1"/>
+    <sheet name="log" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>recommendation</t>
-  </si>
-  <si>
-    <t>rent</t>
-  </si>
-  <si>
-    <t>Marie</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Comedy</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>47921                  Baja Beach Bums
-48119                 Tripping Forward
-48296                             Bald
-50052                    The Pool Boys
-50474                   Taking Chances
-50627    How to Seduce Difficult Women
-50679                        The Strip
-50793                 American Cowslip
-51232                     Ready or Not
-52072             The Smell of Success</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>24567               Eternity
-24728    The Local Stigmatic
-25266               The Fool
-25284             The Garden
-25313                 Hamlet
-25420         The Man Inside
-25515       Princes in Exile
-25539            Return Home
-25642    To Sleep with Anger
-25680             White Room</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>Series([], )</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>38847    Yady, ili vsemirnaya istoriya otravleniy</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -157,31 +51,90 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,133 +434,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="A1" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="145" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="145"/>
   <cols>
-    <col min="1" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="91.81640625" style="1" customWidth="1"/>
+    <col customWidth="1" max="5" min="1" style="1" width="8.7265625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="91.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
+    <row customHeight="1" ht="25" r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>genre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>rent</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+    <row customHeight="1" ht="145" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Marie</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>47921                  Baja Beach Bums
+48119                 Tripping Forward
+48296                             Bald
+50052                    The Pool Boys
+50474                   Taking Chances
+50627    How to Seduce Difficult Women
+50679                        The Strip
+50793                 American Cowslip
+51232                     Ready or Not
+52072             The Smell of Success</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+    <row customHeight="1" ht="145" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>24567               Eternity
+24728    The Local Stigmatic
+25266               The Fool
+25284             The Garden
+25313                 Hamlet
+25420         The Man Inside
+25515       Princes in Exile
+25539            Return Home
+25642    To Sleep with Anger
+25680             White Room</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
+    <row customHeight="1" ht="14.5" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>George</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Russian</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Series([], )</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
+    <row customHeight="1" ht="14.5" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>George</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Russian</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>38847    Yady, ili vsemirnaya istoriya otravleniy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Olga</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>30932    Predators from Beyond Neptune
+31199                   Big Helium Dog
+31205           Breakfast of Champions
+31930            Freak Talks About Sex
+32012               The Out-of-Towners
+32130                        Bowfinger
+32208                        The Craic
+32241        Perpetrators of the Crime
+32516                The 24 Hour Woman
+32535                           Goosed</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tom</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>36623    Kwik Stop</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/log.xlsx
+++ b/log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" state="visible" r:id="rId1"/>
@@ -51,22 +51,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -439,19 +439,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="145" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="145"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="1" min="1" max="5"/>
-    <col width="91.81640625" customWidth="1" style="1" min="6" max="6"/>
+    <col customWidth="1" max="5" min="1" style="1" width="8.7265625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="91.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
+    <row customHeight="1" ht="25" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>name</t>
@@ -488,7 +488,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="145" customHeight="1">
+    <row customHeight="1" ht="145" r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Marie</t>
@@ -534,7 +534,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="145" customHeight="1">
+    <row customHeight="1" ht="145" r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Rosa</t>
@@ -580,7 +580,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="14.5" customHeight="1">
+    <row customHeight="1" ht="14.5" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>George</t>
@@ -612,7 +612,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="14.5" customHeight="1">
+    <row customHeight="1" ht="14.5" r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>George</t>
@@ -767,8 +767,111 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>32668    La balia</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34211    Aberdeen</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                        original_title  year                      genre language      budget  duration usa_gross_income  reviews_from_users
+0                                           Miss Jerry  1894                    Romance     None         NaN        45              NaN                 1.0
+1                          The Story of the Kelly Gang  1906    Biography, Crime, Drama     None      $ 2250        70              NaN                 7.0
+2                                       Den sorte drøm  1911                      Drama      NaN         NaN        53              NaN                 5.0
+3                                            Cleopatra  1912             Drama, History  English     $ 45000       100              NaN                25.0
+4                                            L'Inferno  1911  Adventure, Drama, Fantasy  Italian         NaN        68              NaN                31.0
+5  From the Manger to the Cross; or, Jesus of Nazareth  1912           Biography, Drama  English         NaN        60              NaN                13.0
+6                                       Madame DuBarry  1919  Biography, Drama, Romance   German         NaN        85              NaN                12.0
+7                                           Quo Vadis?  1913             Drama, History  Italian   ITL 45000       120              NaN                 7.0
+8                                Independenta Romaniei  1912               History, War      NaN  ROL 400000       120              NaN                 4.0
+9                                          Richard III  1912                      Drama  English     $ 30000        55              NaN                 8.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/log.xlsx
+++ b/log.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1048576"/>
@@ -846,9 +846,6 @@
       <c r="B11" t="n">
         <v>11</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t xml:space="preserve">                                        original_title  year                      genre language      budget  duration usa_gross_income  reviews_from_users
@@ -870,6 +867,51 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Olga</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>29</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 original_title  year  genre language      budget  duration usa_gross_income  reviews_from_users
+31327            Ricochet River  2001  Drama  English         NaN       112              NaN                 7.0
+31335         The Shipping News  2001  Drama  English  $ 38000000       111       $ 11434216               210.0
+34751      The Invisible Circus  2001  Drama  English         NaN        93          $ 77578                49.0
+35164  A Day in Black and White  2001  Drama  English         NaN        80              NaN                 4.0
+36026          The Rising Place  2001  Drama  English         NaN        93           $ 8360                 2.0
+36414       The Sleepy Time Gal  2001  Drama  English         NaN       108              NaN                14.0
+36460    Diary of a City Priest  2001  Drama  English         NaN        77              NaN                 4.0
+36705           Sensual Friends  2001  Drama  English         NaN        93              NaN                 6.0
+36899    Goodbye Charlie Bright  2001  Drama  English         NaN        87              NaN                24.0
+37077         Borderline Normal  2001  Drama  English         NaN        85              NaN                 8.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
